--- a/tut06/output/2001CB11.xlsx
+++ b/tut06/output/2001CB11.xlsx
@@ -537,16 +537,16 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -713,7 +713,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
